--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">DIP breakoutboard 0.65 4pin </t>
   </si>
@@ -82,12 +82,15 @@
   </si>
   <si>
     <t>L7805CV Voltage Regulator 5V</t>
+  </si>
+  <si>
+    <t>Atmega168u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,11 +421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,14 +574,30 @@
       <c r="B16">
         <v>10</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.ebay.com/itm/USB-Nano-V3-0-ATmega328-16M-5V-Micro-controller-CH340G-board-For-Arduino/201601613488?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2060353.m2749.l2649"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://www.ebay.com/itm/USB-Nano-V3-0-ATmega328-16M-5V-Micro-controller-CH340G-board-For-Arduino/201601613488?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2060353.m2749.l2649" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{11163118-37C4-44DB-8C73-B093FC36CA66}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{59E040F4-07FA-45EB-8E5D-699C49E8213C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eskedal\Desktop\WTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eskedal\Desktop\WTP\WTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Kolonne1</t>
   </si>
@@ -213,13 +213,43 @@
   </si>
   <si>
     <t>LCM1602C LCD</t>
+  </si>
+  <si>
+    <t>RJ45 Socket Breakout Module</t>
+  </si>
+  <si>
+    <t>Relay 2-Ch 5V w/ Optocouplers</t>
+  </si>
+  <si>
+    <t>5V DPDT Low Power Relay</t>
+  </si>
+  <si>
+    <t>1.5m  Cat5e</t>
+  </si>
+  <si>
+    <t>HCPL-817 GP Opto</t>
+  </si>
+  <si>
+    <t>KB814 AD Opto</t>
+  </si>
+  <si>
+    <t>Grey ABS 65x30x15mm</t>
+  </si>
+  <si>
+    <t>Breadboard CT1026 - 165x55</t>
+  </si>
+  <si>
+    <t>Compartment Storage Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dual Axis Joystick/Thumbstick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -249,13 +279,31 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -285,6 +333,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -694,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,6 +1153,86 @@
         <v>23</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1120,9 +1253,9 @@
     <hyperlink ref="C20" r:id="rId16" xr:uid="{3BA1AE14-C113-4B2B-9281-7D6FBD8653FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eskedal\Desktop\WTP\WTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eskedal\Desktop\WTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Kolonne1</t>
   </si>
@@ -240,16 +240,13 @@
   </si>
   <si>
     <t>Compartment Storage Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dual Axis Joystick/Thumbstick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +288,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -319,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -338,6 +350,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -749,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +912,7 @@
       <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1226,9 +1240,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="F32" s="12"/>
       <c r="G32">
         <v>1</v>
       </c>
